--- a/pred_ohlcv/54_21/2019-10-29 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 POWR ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-5498130.48686649</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-5499390.57256649</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-5497120.87856649</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-5456713.77856649</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5464112.03776649</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5465278.53976649</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5475874.01946649</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-5506590.35906649</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5526631.42596649</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5443113.15926649</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5443113.15926649</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4488237.510066492</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4505929.083466492</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4511721.011015682</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>639378.9889843185</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7109757.282088747</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>7068975.463788747</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>7061836.050688747</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>7061364.549988748</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>7067763.001988748</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>7066637.922988748</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>7067783.818188747</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>7067783.818188747</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>7088983.976888747</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>7077688.941288747</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>7164712.197588747</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>7153798.187488748</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>7130252.368188748</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 POWR ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-5498130.48686649</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-5499390.57256649</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-5497120.87856649</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5545876.70826649</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5536876.70826649</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-5456713.77856649</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-5457985.39096649</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5464112.03776649</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5465278.53976649</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5475874.01946649</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-5506590.35906649</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5526631.42596649</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5524352.29256649</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-5523123.15926649</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5443113.15926649</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5443113.15926649</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-5170113.15926649</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-5038113.15926649</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4893113.15926649</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4887218.681566491</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4886218.681566491</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4776416.359666491</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4500568.775566491</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4507964.796166492</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4488237.510066492</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4505929.083466492</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4511721.011015682</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>639378.9889843185</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5161231.011015682</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7114786.910088747</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7109757.282088747</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7110977.282088747</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7095751.266288747</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7069475.463788747</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>7068975.463788747</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>7047868.050688747</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>7061910.083288748</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>7067752.444488748</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>7067763.001988748</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>7067753.001988748</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>7066637.922988748</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>7062494.530588748</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>7062494.530588748</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>7067783.818188747</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>7067783.818188747</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>7077688.941288747</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>7164712.197588747</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>7149618.187488748</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>7153798.187488748</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>7130252.368188748</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
